--- a/biology/Microbiologie/Institut_Max-Planck_de_microbiologie_terrestre/Institut_Max-Planck_de_microbiologie_terrestre.xlsx
+++ b/biology/Microbiologie/Institut_Max-Planck_de_microbiologie_terrestre/Institut_Max-Planck_de_microbiologie_terrestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Max-Planck de microbiologie terrestre (Max-Planck-Institut für terrestrische Mikrobiologie) est un institut de recherche extra-universitaire dépendant de la Société Max-Planck situé à Marbourg, consacré à la microbiologie du milieu terrestre.
 L'institut étudie l'écologie des micro-organismes dans les habitats terrestres, dans le sol en particulier. Il s'intéresse à la génétique, la biochimie, le métabolisme, les interactions entre les organismes dans les habitats spécifiques ou d'organismes modèles.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut est créé en janvier 1991. Son premier directeur est Rudolf Thauer, professeur de microbiologie à l'université de Marbourg depuis 1976. Les directeurs sont aujourd'hui Ralf Conrad, Regine Kahmann et Lotte Søgaard-Andersen.
 </t>
@@ -543,7 +557,9 @@
           <t>Organisation et structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Institut est divisé en quatre départements, chacun comprenant plusieurs groupes de travail. En outre, il existe deux groupes de recherche indépendants.
 Département de biochimie
@@ -596,7 +612,9 @@
           <t>International Max Planck Research School (IMPRS)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Max-Planck de microbiologie terrestre participe avec l'université de Marbourg au "International Max Research School for Environmental, Cellular and Molecular Microbiology". L'IMPRS est un programme de doctorants anglophones. Il se compose d'environ 30 groupes de recherche. Son directeur est Lotte Søgaard-Andersen.
 </t>
